--- a/BulkSiteUpload/BulkSiteTemplate1.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\BulkSiteUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77322C0-A96B-47E6-BDDD-E1C6AAABE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7915792C-9505-4919-9EE5-8C91C172FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="0" windowWidth="13032" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -50,27 +50,6 @@
   </si>
   <si>
     <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>1084001</t>
-  </si>
-  <si>
-    <t>1084002</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -453,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="I3" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -503,40 +482,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>54000</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
